--- a/api/static/test.xlsx
+++ b/api/static/test.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Edad</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Lugar</t>
   </si>
   <si>
     <t>Juan</t>
@@ -427,11 +427,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
